--- a/Pressure/3_catheter/CatheterComparisonTemplate.xlsx
+++ b/Pressure/3_catheter/CatheterComparisonTemplate.xlsx
@@ -1,33 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liuonline-my.sharepoint.com/personal/sopbe21_liu_se/Documents/04_Teaching/CourseTBMT09/PressureLabCreation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andhe794\OneDrive - Linköpings universitet\TBMT09\Pressure\3_catheter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{82A3F049-D10F-43C3-93C6-ECED54EE33B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E476B002-A694-411C-88A8-B21DC4237D18}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{82A3F049-D10F-43C3-93C6-ECED54EE33B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{4428BBCE-DD60-44B9-AF30-05F34D97FA8D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" firstSheet="1" activeTab="1" xr2:uid="{4341AF5C-A7D9-4E77-8756-B7404439F82F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="24495" windowHeight="15795" activeTab="1" xr2:uid="{4341AF5C-A7D9-4E77-8756-B7404439F82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -231,6 +223,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,7 +282,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -473,7 +467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1319107023"/>
@@ -535,7 +529,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1261145615"/>
@@ -583,7 +577,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -634,7 +628,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -819,7 +813,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1319107023"/>
@@ -881,7 +875,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1261145615"/>
@@ -929,7 +923,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -980,7 +974,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1159,7 +1153,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1319107023"/>
@@ -1221,7 +1215,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1261145615"/>
@@ -1269,7 +1263,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1320,7 +1314,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1487,7 +1481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1319107023"/>
@@ -1549,7 +1543,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1261145615"/>
@@ -1597,7 +1591,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1648,7 +1642,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1703,25 +1697,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.296357736000045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.59271547200009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.94834475520014405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.18543094400018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.422517132800216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.37086188800036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.74172377600072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,6 +1726,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1808,7 +1823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2044802239"/>
@@ -1870,7 +1885,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="106763583"/>
@@ -1918,7 +1933,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1969,7 +1984,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2024,25 +2039,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0567677879811475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.1135355759622949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.3816569215396721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.2270711519245898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.072485382309508</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8.4541423038491796</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>16.908284607698359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,6 +2068,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2129,7 +2165,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2044802239"/>
@@ -2191,7 +2227,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="106763583"/>
@@ -2239,7 +2275,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2290,7 +2326,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2345,25 +2381,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.9729732527812001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>19.9459465055624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>31.913514408899843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>39.8918930111248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>47.870271613349757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>79.7837860222496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>159.5675720444992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,6 +2410,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2450,7 +2507,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2044802239"/>
@@ -2512,7 +2569,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="106763583"/>
@@ -2560,7 +2617,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2611,7 +2668,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2666,25 +2723,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>22.30129039384105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>44.602580787682101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>71.364129260291364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>89.205161575364201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>107.04619389043704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>178.4103231507284</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>356.8206463014568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2695,6 +2752,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2771,7 +2849,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2044802239"/>
@@ -2833,7 +2911,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="106763583"/>
@@ -2881,7 +2959,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7949,13 +8027,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20DC968-05F2-4362-8F3C-50E0A66465B3}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="M13" workbookViewId="0">
       <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7969,7 +8047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7983,7 +8061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7997,7 +8075,7 @@
         <v>3.7847</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -8011,7 +8089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -8025,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -8039,7 +8117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -8053,7 +8131,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.1854</v>
       </c>
@@ -8067,7 +8145,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.5</v>
       </c>
@@ -8081,7 +8159,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8095,7 +8173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8109,7 +8187,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -8123,7 +8201,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O24" t="s">
         <v>0</v>
       </c>
@@ -8131,7 +8209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -8145,7 +8223,7 @@
         <v>2.7877000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -8159,7 +8237,7 @@
         <v>2.8209</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -8167,7 +8245,7 @@
         <v>4.2313999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O28" t="s">
         <v>6</v>
       </c>
@@ -8175,7 +8253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -8189,7 +8267,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -8203,7 +8281,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -8217,7 +8295,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -8231,7 +8309,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -8245,7 +8323,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4.2300000000000004</v>
       </c>
@@ -8253,7 +8331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -8261,7 +8339,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -8279,13 +8357,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D70F7A2-EF1C-4FBE-A4AF-4854B41D8F41}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -8293,7 +8371,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -8303,9 +8381,11 @@
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7">
+        <v>863256411.33044004</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -8315,9 +8395,11 @@
       <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <v>159154943.09189501</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -8327,37 +8409,43 @@
       <c r="C4" s="6"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="5">
+        <v>1.26156626101008</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>0.34213676998593401</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="12">
+        <v>1.18543094400018</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -8369,92 +8457,106 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>0.25*B7</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="e">
+        <v>0.296357736000045</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="C10" s="6">
         <f>A10/$B$7</f>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f>0.5*B7</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="e">
+        <v>0.59271547200009</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="C11" s="6">
         <f t="shared" ref="C11:C16" si="0">A11/$B$7</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>0.8*B7</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="e">
+        <v>0.94834475520014405</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1.365</v>
+      </c>
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f>1*B7</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="e">
+        <v>1.18543094400018</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1.524</v>
+      </c>
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>1.2*B7</f>
-        <v>0</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="e">
+        <v>1.422517132800216</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1.516</v>
+      </c>
+      <c r="C14" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.2</v>
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>2*B7</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="e">
+        <v>2.37086188800036</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="C15" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" ht="14.65" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f>4*B7</f>
-        <v>0</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="e">
+        <v>4.74172377600072</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="14.65" thickBot="1"/>
-    <row r="22" spans="1:4">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -8462,7 +8564,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -8472,9 +8574,11 @@
       <c r="C23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7">
+        <v>341039569.90832198</v>
+      </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -8484,49 +8588,57 @@
       <c r="C24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7">
+        <v>141471060.52612901</v>
+      </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="5">
-        <v>1E-10</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6">
+        <v>4.2314218766081702</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5">
+        <v>4.5335767424636998E-2</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6">
+        <v>4.2270711519245898</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -8538,92 +8650,106 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f>0.25*B28</f>
-        <v>0</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="e">
+        <v>1.0567677879811475</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="C31" s="6">
         <f>A31/$B$28</f>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f>0.5*B28</f>
-        <v>0</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="e">
+        <v>2.1135355759622949</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1.33</v>
+      </c>
+      <c r="C32" s="6">
         <f t="shared" ref="C32:C37" si="1">A32/$B$28</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f>0.8*B28</f>
-        <v>0</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="e">
+        <v>3.3816569215396721</v>
+      </c>
+      <c r="B33" s="13">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="C33" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f>1*B28</f>
-        <v>0</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="e">
+        <v>4.2270711519245898</v>
+      </c>
+      <c r="B34" s="13">
+        <v>10.92</v>
+      </c>
+      <c r="C34" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f>1.2*B28</f>
-        <v>0</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="e">
+        <v>5.072485382309508</v>
+      </c>
+      <c r="B35" s="13">
+        <v>2.14</v>
+      </c>
+      <c r="C35" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.2</v>
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f>2*B28</f>
-        <v>0</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="e">
+        <v>8.4541423038491796</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.32</v>
+      </c>
+      <c r="C36" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="14.65" thickBot="1">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <f>4*B28</f>
-        <v>0</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10" t="e">
+        <v>16.908284607698359</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="C37" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="40" spans="1:4" ht="14.65" thickBot="1"/>
-    <row r="41" spans="1:4">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -8631,7 +8757,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
@@ -8641,9 +8767,11 @@
       <c r="C42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="7">
+        <v>1726512822.6608801</v>
+      </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -8653,9 +8781,11 @@
       <c r="C43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="7">
+        <v>318309886.18379003</v>
+      </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
@@ -8665,37 +8795,43 @@
       <c r="C44" s="6"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="6">
+        <v>89.206205807638497</v>
+      </c>
       <c r="C45" s="6"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5">
+        <v>4.8385446030060003E-3</v>
+      </c>
       <c r="C46" s="6"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="6">
+        <v>89.205161575364201</v>
+      </c>
       <c r="C47" s="6"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -8707,92 +8843,106 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>0.25*B47</f>
-        <v>0</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="e">
+        <v>22.30129039384105</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C50" s="6">
         <f>A50/$B$47</f>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>0.5*B47</f>
-        <v>0</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="e">
+        <v>44.602580787682101</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="C51" s="6">
         <f t="shared" ref="C51:C56" si="2">A51/$B$47</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>0.8*B47</f>
-        <v>0</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6" t="e">
+        <v>71.364129260291364</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1.04</v>
+      </c>
+      <c r="C52" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>1*B47</f>
-        <v>0</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="e">
+        <v>89.205161575364201</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="C53" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>1.2*B47</f>
-        <v>0</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6" t="e">
+        <v>107.04619389043704</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.2</v>
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>2*B47</f>
-        <v>0</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6" t="e">
+        <v>178.4103231507284</v>
+      </c>
+      <c r="B55" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="C55" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:4" ht="14.65" thickBot="1">
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <f>4*B47</f>
-        <v>0</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10" t="e">
+        <v>356.8206463014568</v>
+      </c>
+      <c r="B56" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="C56" s="10">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="D56" s="11"/>
     </row>
-    <row r="58" spans="1:4" ht="14.65" thickBot="1"/>
-    <row r="59" spans="1:4">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -8800,7 +8950,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
@@ -8810,9 +8960,11 @@
       <c r="C60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="7">
+        <v>863256411.33044004</v>
+      </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
@@ -8822,9 +8974,11 @@
       <c r="C61" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="7">
+        <v>159154943.09189501</v>
+      </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
@@ -8834,37 +8988,43 @@
       <c r="C62" s="6"/>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="6"/>
+      <c r="B63" s="6">
+        <v>39.894228040143197</v>
+      </c>
       <c r="C63" s="6"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="5"/>
+      <c r="B64" s="5">
+        <v>1.0819314644487E-2</v>
+      </c>
       <c r="C64" s="6"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="6"/>
+      <c r="B65" s="6">
+        <v>39.8918930111248</v>
+      </c>
       <c r="C65" s="6"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>17</v>
       </c>
@@ -8876,87 +9036,101 @@
       </c>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>0.25*B65</f>
-        <v>0</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6" t="e">
+        <v>9.9729732527812001</v>
+      </c>
+      <c r="B68" s="13">
+        <v>1.02</v>
+      </c>
+      <c r="C68" s="6">
         <f>A68/$B$65</f>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>0.5*B65</f>
-        <v>0</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6" t="e">
+        <v>19.9459465055624</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C69" s="6">
         <f t="shared" ref="C69:C74" si="3">A69/$B$65</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>0.8*B65</f>
-        <v>0</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6" t="e">
+        <v>31.913514408899843</v>
+      </c>
+      <c r="B70" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="C70" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
       </c>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>1*B65</f>
-        <v>0</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6" t="e">
+        <v>39.8918930111248</v>
+      </c>
+      <c r="B71" s="13">
+        <v>25</v>
+      </c>
+      <c r="C71" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>1.2*B65</f>
-        <v>0</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6" t="e">
+        <v>47.870271613349757</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="C72" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.2</v>
       </c>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>2*B65</f>
-        <v>0</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6" t="e">
+        <v>79.7837860222496</v>
+      </c>
+      <c r="B73" s="13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C73" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" ht="14.65" thickBot="1">
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <f>4*B65</f>
-        <v>0</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10" t="e">
+        <v>159.5675720444992</v>
+      </c>
+      <c r="B74" s="10">
+        <v>13</v>
+      </c>
+      <c r="C74" s="10">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="D74" s="11"/>
     </row>
@@ -8968,6 +9142,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_lisam_PublishedVersion xmlns="31f8c6c6-135b-4eea-bcef-f9e23ef02fb1" xsi:nil="true"/>
+    <_lisam_Description xmlns="58359b6a-c0fe-45af-be1e-abb57227a914" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100481E209C78BE60418B9346B53ED24856" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f0d44b3876a9f33be162ecb98a02de74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58359b6a-c0fe-45af-be1e-abb57227a914" xmlns:ns3="31f8c6c6-135b-4eea-bcef-f9e23ef02fb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be90590433856255d5425f636ee0c954" ns2:_="" ns3:_="">
     <xsd:import namespace="58359b6a-c0fe-45af-be1e-abb57227a914"/>
@@ -9136,32 +9328,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_lisam_PublishedVersion xmlns="31f8c6c6-135b-4eea-bcef-f9e23ef02fb1" xsi:nil="true"/>
-    <_lisam_Description xmlns="58359b6a-c0fe-45af-be1e-abb57227a914" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A770B39-A958-4FE3-A654-A417F498658D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25105BB1-F8DA-4C8C-B658-A7604021DAE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="58359b6a-c0fe-45af-be1e-abb57227a914"/>
+    <ds:schemaRef ds:uri="31f8c6c6-135b-4eea-bcef-f9e23ef02fb1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49F722D5-626F-4D6C-8225-35B57AFE6821}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49F722D5-626F-4D6C-8225-35B57AFE6821}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25105BB1-F8DA-4C8C-B658-A7604021DAE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A770B39-A958-4FE3-A654-A417F498658D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="58359b6a-c0fe-45af-be1e-abb57227a914"/>
+    <ds:schemaRef ds:uri="31f8c6c6-135b-4eea-bcef-f9e23ef02fb1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>